--- a/Resources/TestData/Old/qat01.xlsx
+++ b/Resources/TestData/Old/qat01.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="1" r:id="rId1"/>
-    <sheet name="Footers" sheetId="2" r:id="rId2"/>
-    <sheet name="Headers" sheetId="3" r:id="rId3"/>
-    <sheet name="TabSelections" sheetId="4" r:id="rId4"/>
-    <sheet name="TestData" sheetId="5" r:id="rId5"/>
+    <sheet name="Chat" sheetId="7" r:id="rId2"/>
+    <sheet name="Footers" sheetId="2" r:id="rId3"/>
+    <sheet name="Headers" sheetId="3" r:id="rId4"/>
+    <sheet name="TabSelections" sheetId="4" r:id="rId5"/>
+    <sheet name="ECommerce" sheetId="6" r:id="rId6"/>
+    <sheet name="MultiLang" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="201">
   <si>
     <t>TC_NO</t>
   </si>
@@ -140,9 +142,6 @@
     <t>007_CC_REG_RES_FCOM_MyProfile-UnLinkAccount</t>
   </si>
   <si>
-    <t>72784943010808015</t>
-  </si>
-  <si>
     <t>TC10</t>
   </si>
   <si>
@@ -164,27 +163,18 @@
     <t>016_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_InternetHOPUpgrade</t>
   </si>
   <si>
-    <t>Ftrfrank1+ecomauto@gmail.com</t>
-  </si>
-  <si>
     <t>TC13</t>
   </si>
   <si>
     <t>017_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video HOP Upgrade</t>
   </si>
   <si>
-    <t>ftrfrank1+ecommtest01@gmail.com</t>
-  </si>
-  <si>
     <t>Password123</t>
   </si>
   <si>
     <t>TC14</t>
   </si>
   <si>
-    <t>018_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video ADD</t>
-  </si>
-  <si>
     <t>Env</t>
   </si>
   <si>
@@ -350,65 +340,343 @@
     <t>016_CC_.COM_ENGLISH_NSS_Res_TS_Support_ContactUs</t>
   </si>
   <si>
-    <t>81398647071107145</t>
-  </si>
-  <si>
-    <t>Linked A/C</t>
-  </si>
-  <si>
-    <t>Pin</t>
-  </si>
-  <si>
-    <t>9191</t>
-  </si>
-  <si>
-    <t>219-324-3764-102891-5</t>
-  </si>
-  <si>
-    <t>3800</t>
-  </si>
-  <si>
     <t>7278494301</t>
   </si>
   <si>
-    <t>219-089-7455-081683-5</t>
-  </si>
-  <si>
     <t>Zipcode1</t>
   </si>
   <si>
     <t>75024</t>
   </si>
   <si>
-    <t>$140.97</t>
-  </si>
-  <si>
-    <t>001_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_PreferredVideoPackage</t>
-  </si>
-  <si>
-    <t>Ftrfrank1+videoadd@gmail.com</t>
-  </si>
-  <si>
     <t>002_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomEssentialsPackage</t>
   </si>
   <si>
-    <t>ftrfrank1+feb18@gmail.com</t>
-  </si>
-  <si>
     <t>003_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomSportsPackage</t>
   </si>
   <si>
-    <t>004_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_ExtremePackage</t>
-  </si>
-  <si>
-    <t>005_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_UltimateVideoPackage</t>
+    <t>Add Video Package</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_PreferredVideoPackage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+020_CC_.COM_SS_AS_E-Com_AVP_Add Preferred Video Package</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">004_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_ExtremePackage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>021_CC_.COM_SS_AS_E-Com_AVP_Add Extreme Video Package</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">005_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_UltimateVideoPackage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>022_CC_.COM_SS_AS_E-Com_AVP_Add Ultimate Video Package</t>
+    </r>
+  </si>
+  <si>
+    <t>001_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_ErrorMessaging</t>
+  </si>
+  <si>
+    <t>ftrfrank1+automation3@gmail.com</t>
+  </si>
+  <si>
+    <t>002_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageSelectionRetention</t>
+  </si>
+  <si>
+    <t>003_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonHomePage_Enterprise</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonHomePage_Res</t>
+  </si>
+  <si>
+    <t>005_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonHomePage_SMB</t>
+  </si>
+  <si>
+    <t>006_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleDisplayonMobileAppPage</t>
+  </si>
+  <si>
+    <t>007_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleFunctionalityonHomePage</t>
+  </si>
+  <si>
+    <t>008_CC_.COM_NSS_Res_Multi-Language_OnlineAndMobile_LanguageToggleFunctionalityonMobileAppPage</t>
+  </si>
+  <si>
+    <t>010_CC_.COM_NSS_Res_Non-LoggedInChatFlow_KnownHelpType</t>
+  </si>
+  <si>
+    <t>011_CC_.COM_NSS_Res_Non-LoggedInChatFlow_UnknownHelpType</t>
+  </si>
+  <si>
+    <t>012_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_CustomerType</t>
+  </si>
+  <si>
+    <t>013_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_SupportType</t>
+  </si>
+  <si>
+    <t>014_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_SupportTypeAutoNavtoPCS2</t>
+  </si>
+  <si>
+    <t>015_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_SupportTypeNavtoPCS1S3</t>
+  </si>
+  <si>
+    <t>016_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ServiceType</t>
+  </si>
+  <si>
+    <t>017_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ServiceTypeNavtoPCS1S4</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>018_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>019_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_Voice</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>020_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_Internet</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>021_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_TV</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>022_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductType_FrontierSecure</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>023_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_ProductTypeAutoNavtoPCS2</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>024_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_AgentWindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>025_CC_.COM_NSS_Res_Non-LoggedIn_PCS1_CTAButton</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>026_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_NonSignIn</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>027_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_NonSignIn_Agent WindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>028_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_Non SignIn_RequiredFields</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>029_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_SignIn</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>030_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_SignIn_AgentWindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>031_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_CTAButton</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>032_CC_.COM_NSS_Res_Non-LoggedIn_PCS2_BackButton-Link</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>034_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_FreeForm</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>035_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_AgentWindowPassthrough</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>036_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_FreeForm_RequiredField</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>037_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_CTAButton</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>038_CC_.COM_NSS_Res_Non-LoggedIn_PCS3_BackButton-Link</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>043_CC_.COM_NSS_Res_Non-LoggedIn_Self-ServeWindow</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>047_CC_.COM_NSS_Res_Non-LoggedIn_OverlayMenuFunctionality</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>049_CC_.COM_NSS_Res_Non-LoggedIn_AutoMessages</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>01_CC_.COM_NSS_Res_Chat_SMC_URLGenerator</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>03_CC_.COM_NSS_Res_Chat_SMC_CreationofNewSocialMediaChatLandingPage</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>04_CC_.COM_NSS_Res_Chat_SMC_DisplayofNewSocialMediaChatLandingPage</t>
+  </si>
+  <si>
+    <t>https://agentqat01.ftr.com/agent/social_media_chatlink_generator#/</t>
+  </si>
+  <si>
+    <t>ftrqat01+1@gmail.com</t>
+  </si>
+  <si>
+    <t>989-584-3113-030812-5</t>
+  </si>
+  <si>
+    <t>$133.53</t>
+  </si>
+  <si>
+    <t>001_CC_.COM_NSS_Res_ML_ErrorMessaging</t>
+  </si>
+  <si>
+    <t>qat03</t>
+  </si>
+  <si>
+    <t>https://qat03.frontier.com/</t>
+  </si>
+  <si>
+    <t>002_CC_.COM_NSS_Res_ML_LanguageSelectionRetention</t>
+  </si>
+  <si>
+    <t>003_CC_.COM_NSS_Res_ML_ToggleDisplayonHomePage_Enterprise</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_NSS_Res_ML_ToggleDisplayonHomePage_Res</t>
+  </si>
+  <si>
+    <t>005_CC_.COM_NSS_Res_ML_ToggleDisplayonHomePage_SMB</t>
+  </si>
+  <si>
+    <t>006_CC_.COM_NSS_Res_ML_ToggleDisplayonMobileAppPage</t>
+  </si>
+  <si>
+    <t>007_CC_.COM_NSS_Res_ML_ToggleFunctionalityonHomePage</t>
+  </si>
+  <si>
+    <t>008_CC_.COM_NSS_Res_ML_ToggleFunctionalityonMobileAppPage</t>
+  </si>
+  <si>
+    <t>009_CC_.COM_NSS_Res_ML_SiteWideTranslationNavigation</t>
+  </si>
+  <si>
+    <t>ftrfrank1+apr29@gmail.com</t>
+  </si>
+  <si>
+    <t>Ftrfrank1+remedyticket@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,17 +721,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -539,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -555,7 +839,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -564,9 +847,25 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -840,7 +1139,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -848,36 +1147,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9.140625" style="14" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" style="13" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -926,7 +1225,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -935,7 +1234,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>18</v>
@@ -943,7 +1242,7 @@
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -963,7 +1262,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
-      <c r="P2" s="16"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -982,17 +1281,17 @@
       <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>26</v>
+      <c r="F3" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -1000,7 +1299,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="16"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1041,7 +1340,7 @@
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="16"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1074,7 +1373,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="16"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1143,8 +1442,8 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="16" t="s">
-        <v>116</v>
+      <c r="P7" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="Q7" s="12"/>
     </row>
@@ -1153,7 +1452,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
@@ -1178,21 +1477,21 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="16"/>
+      <c r="P8" s="15"/>
       <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>21</v>
@@ -1211,15 +1510,15 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="16"/>
+      <c r="P9" s="15"/>
       <c r="Q9" s="12"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
@@ -1230,11 +1529,11 @@
       <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
+      <c r="F10" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1244,15 +1543,15 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>19</v>
@@ -1263,11 +1562,11 @@
       <c r="E11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>51</v>
+      <c r="F11" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1277,79 +1576,55 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="16"/>
+      <c r="P11" s="15"/>
       <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="12"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -1362,27 +1637,13 @@
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1395,27 +1656,13 @@
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -1428,27 +1675,13 @@
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1461,27 +1694,13 @@
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -2785,120 +3004,6 @@
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -2912,27 +3017,1305 @@
     <hyperlink ref="D9" r:id="rId9"/>
     <hyperlink ref="F9" r:id="rId10"/>
     <hyperlink ref="D10" r:id="rId11"/>
-    <hyperlink ref="F10" r:id="rId12"/>
-    <hyperlink ref="D11" r:id="rId13"/>
-    <hyperlink ref="F11" r:id="rId14"/>
-    <hyperlink ref="D12" r:id="rId15"/>
-    <hyperlink ref="D14" r:id="rId16"/>
-    <hyperlink ref="F14" r:id="rId17"/>
-    <hyperlink ref="D15" r:id="rId18"/>
-    <hyperlink ref="F15" r:id="rId19"/>
-    <hyperlink ref="D16" r:id="rId20"/>
-    <hyperlink ref="F16" r:id="rId21"/>
-    <hyperlink ref="D17" r:id="rId22"/>
-    <hyperlink ref="F17" r:id="rId23"/>
-    <hyperlink ref="D18" r:id="rId24"/>
-    <hyperlink ref="F18" r:id="rId25"/>
+    <hyperlink ref="D11" r:id="rId12"/>
+    <hyperlink ref="F10" r:id="rId13" display="mailto:Ftrfrank1+remedyticket@gmail.com"/>
+    <hyperlink ref="F11" r:id="rId14" display="mailto:Ftrfrank1+remedyticket@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" display="https://qat03.frontier.com/resources/cpni"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D10" r:id="rId5" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D11" r:id="rId6" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D12" r:id="rId7" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D13" r:id="rId8" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D14" r:id="rId9" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D15" r:id="rId10" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D16" r:id="rId11" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D17" r:id="rId12" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D18" r:id="rId13" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D20" r:id="rId15" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D21" r:id="rId16" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D22" r:id="rId17" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D24" r:id="rId19" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D25" r:id="rId20" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D26" r:id="rId21" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D27" r:id="rId22" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D28" r:id="rId23" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D29" r:id="rId24" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D30" r:id="rId25" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D31" r:id="rId26" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D32" r:id="rId27" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D33" r:id="rId28" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D34" r:id="rId29" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D35" r:id="rId30" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D36" r:id="rId31" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D37" r:id="rId32" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D38" r:id="rId33" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D39" r:id="rId34" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D40" r:id="rId35" display="https://qat03.frontier.com/"/>
+    <hyperlink ref="D43" r:id="rId36" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/"/>
+    <hyperlink ref="D44" r:id="rId37" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/"/>
+    <hyperlink ref="D42" r:id="rId38" location="/" display="https://agentqat03.ftr.com/agent/social_media_chatlink_generator#/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -2940,19 +4323,19 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:F1048576"/>
+      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="14" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="14" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="6.7109375" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="6.7109375" style="14"/>
+    <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="13" customWidth="1"/>
+    <col min="7" max="10" width="6.7109375" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="6.7109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2966,7 +4349,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2977,16 +4360,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -3000,13 +4383,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -3020,13 +4403,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -3040,13 +4423,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -3060,13 +4443,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -3080,13 +4463,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -3100,13 +4483,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -3117,16 +4500,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -3137,16 +4520,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -3157,16 +4540,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -3177,16 +4560,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -3197,16 +4580,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -3217,16 +4600,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -3237,16 +4620,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -3257,16 +4640,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -3277,16 +4660,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -3306,7 +4689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -3346,7 +4729,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -3361,30 +4744,30 @@
         <v>6</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -3395,16 +4778,16 @@
       <c r="G2" s="9"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3412,13 +4795,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -3438,13 +4821,13 @@
         <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -3453,7 +4836,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>23</v>
@@ -3468,13 +4851,13 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -3494,13 +4877,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -3520,13 +4903,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -3546,13 +4929,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -3569,16 +4952,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -3595,16 +4978,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -3631,7 +5014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -3639,17 +5022,17 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="14" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.7109375" style="14"/>
+    <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="6.7109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3659,30 +5042,30 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3691,15 +5074,15 @@
         <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3708,15 +5091,15 @@
         <v>24</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3725,15 +5108,15 @@
         <v>27</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3742,15 +5125,15 @@
         <v>32</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3759,15 +5142,15 @@
         <v>34</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3776,168 +5159,168 @@
         <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3948,167 +5331,753 @@
     <hyperlink ref="D17" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="14"/>
+    <col min="1" max="1" width="7" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E3:E9" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>